--- a/data/trans_dic/P07B_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.9359440671666984</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9141450216144605</v>
+        <v>0.9141450216144608</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9247120238802115</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9142955579263357</v>
+        <v>0.9127372823914086</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8980860438430297</v>
+        <v>0.8975024231170652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9111151812594683</v>
+        <v>0.9115843991012905</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.952598713848708</v>
+        <v>0.9510216455476284</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9277914495375108</v>
+        <v>0.9275814637840392</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9361526104409861</v>
+        <v>0.9356063350296443</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9088785771710645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9321517721555486</v>
+        <v>0.9321517721555487</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9399169016957365</v>
+        <v>0.9409732671988374</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.893747639526108</v>
+        <v>0.8944372381235884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.921638775951038</v>
+        <v>0.9220219872177443</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9670724860526612</v>
+        <v>0.9666987556023234</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9229106426099691</v>
+        <v>0.9217738458580066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9406822344706046</v>
+        <v>0.9410526771750133</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9091674255463013</v>
+        <v>0.9128670120680937</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8874379628013953</v>
+        <v>0.8906046468099038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9060434876176013</v>
+        <v>0.9055229518654042</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9508912475988011</v>
+        <v>0.9518595290225161</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9256410815315314</v>
+        <v>0.926600933474376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9347068048671653</v>
+        <v>0.9344274659394212</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9224174337776772</v>
+        <v>0.9224174337776773</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.886818843178894</v>
+        <v>0.8868188431788941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9035296485016654</v>
+        <v>0.9035296485016653</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9044414288897732</v>
+        <v>0.9032117876535597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8701063573426641</v>
+        <v>0.8697595540430026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8905672312579074</v>
+        <v>0.8900310678596446</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9379130879695835</v>
+        <v>0.9394666927303239</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9028251177848142</v>
+        <v>0.9026618955561889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9151666677194961</v>
+        <v>0.9153805166627303</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9377184747389137</v>
+        <v>0.9377184747389139</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9034356351702182</v>
+        <v>0.9034356351702181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9200970439029104</v>
+        <v>0.9200970439029105</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9277182413802069</v>
+        <v>0.9280569831685138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8956165434081854</v>
+        <v>0.8954244506289587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9140673933132939</v>
+        <v>0.9144719136465607</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9455166784921518</v>
+        <v>0.9459422474153786</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9124535931559196</v>
+        <v>0.9115770360848944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9260013833738482</v>
+        <v>0.9259598859826716</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>631513</v>
+        <v>630437</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>659357</v>
+        <v>658928</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1298238</v>
+        <v>1298907</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>657969</v>
+        <v>656880</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>681166</v>
+        <v>681012</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1333914</v>
+        <v>1333135</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>985895</v>
+        <v>987003</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>957059</v>
+        <v>957797</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1953648</v>
+        <v>1954461</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1014379</v>
+        <v>1013987</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>988288</v>
+        <v>987070</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1994016</v>
+        <v>1994801</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>730128</v>
+        <v>733099</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>720829</v>
+        <v>723402</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1463561</v>
+        <v>1462720</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>763635</v>
+        <v>764413</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>751860</v>
+        <v>752640</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1509862</v>
+        <v>1509411</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>895453</v>
+        <v>894236</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>973685</v>
+        <v>973297</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1878299</v>
+        <v>1877168</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>928592</v>
+        <v>930130</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1010298</v>
+        <v>1010116</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1930182</v>
+        <v>1930633</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3277408</v>
+        <v>3278604</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3346308</v>
+        <v>3345590</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6644429</v>
+        <v>6647369</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3340285</v>
+        <v>3341789</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3409217</v>
+        <v>3405942</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6731178</v>
+        <v>6730876</v>
       </c>
     </row>
     <row r="24">
